--- a/tutorials/3/plots.xlsx
+++ b/tutorials/3/plots.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fisma/Study/booksim-tutorial/tutorials/3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{238C1B44-5DAB-D346-96FB-BFC9B2D6FD48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98460513-A907-634E-9301-93E603449B8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{B7203DE1-6AAA-1F4E-B905-4336653FF6C7}"/>
   </bookViews>
@@ -3896,8 +3896,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{173CCB5C-070E-7C49-8579-8FD62CA55CA2}">
   <dimension ref="A4:R93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="40" workbookViewId="0">
-      <selection activeCell="Y54" sqref="Y54"/>
+    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/tutorials/3/plots.xlsx
+++ b/tutorials/3/plots.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fisma/Study/booksim-tutorial/tutorials/3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98460513-A907-634E-9301-93E603449B8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93F33353-ADA4-7747-83BD-5307BD216F02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{B7203DE1-6AAA-1F4E-B905-4336653FF6C7}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="7">
   <si>
     <t>Injection Rate</t>
   </si>
@@ -51,6 +51,12 @@
   </si>
   <si>
     <t>32 1024</t>
+  </si>
+  <si>
+    <t>UGAL-16-256 ADV</t>
+  </si>
+  <si>
+    <t>UGAL-16-256 UNI</t>
   </si>
 </sst>
 </file>
@@ -128,31 +134,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>4-16</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -228,10 +209,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$7:$A$46</c:f>
+              <c:f>Sheet1!$A$7:$A$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>2.5000000000000001E-2</c:v>
                 </c:pt>
@@ -264,135 +245,48 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0.27500000000000002</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.32500000000000001</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.35</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.375</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.42499999999999999</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.45</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.47499999999999998</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.52500000000000002</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.55000000000000004</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.57499999999999996</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.625</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.65</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.67500000000000004</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.72499999999999998</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.75</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.77500000000000002</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.82499999999999996</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.85</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.875</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.92500000000000004</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.95</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.97499999999999998</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$7:$B$46</c:f>
+              <c:f>Sheet1!$B$7:$B$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>9.6965400000000006</c:v>
+                  <c:v>9.7136999999999993</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.7944999999999993</c:v>
+                  <c:v>9.8029299999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.9108699999999992</c:v>
+                  <c:v>9.9278999999999993</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10.0518</c:v>
+                  <c:v>10.0487</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10.257899999999999</c:v>
+                  <c:v>10.2492</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10.509499999999999</c:v>
+                  <c:v>10.4968</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10.953799999999999</c:v>
+                  <c:v>10.936999999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>11.71</c:v>
+                  <c:v>11.832000000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>13.765700000000001</c:v>
+                  <c:v>13.9999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>60.6464</c:v>
+                  <c:v>72.271799999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>500</c:v>
+                  <c:v>658.35799999999995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -400,7 +294,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-86ED-9A4C-8F45-4E09D14122BB}"/>
+              <c16:uniqueId val="{00000000-C33F-F142-AA47-AECE78517438}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -412,15 +306,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="101924976"/>
-        <c:axId val="101926688"/>
+        <c:axId val="892673616"/>
+        <c:axId val="892675328"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="101924976"/>
+        <c:axId val="892673616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="0.27500000000000002"/>
-          <c:min val="2.5000000000000001E-2"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -438,66 +330,6 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Injection</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> Rate</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-KR"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -535,15 +367,14 @@
             <a:endParaRPr lang="en-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="101926688"/>
+        <c:crossAx val="892675328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="101926688"/>
+        <c:axId val="892675328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="300"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -561,61 +392,6 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Latency</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-KR"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -653,7 +429,7 @@
             <a:endParaRPr lang="en-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="101924976"/>
+        <c:crossAx val="892673616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -724,31 +500,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>16-256</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -789,10 +540,13 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$R$5</c:f>
+              <c:f>Sheet1!$R$4:$R$5</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
+                  <c:v>16 256</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>Latency</c:v>
                 </c:pt>
               </c:strCache>
@@ -824,10 +578,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$Q$6:$Q$45</c:f>
+              <c:f>Sheet1!$Q$6:$Q$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>2.5000000000000001E-2</c:v>
                 </c:pt>
@@ -860,119 +614,56 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0.27500000000000002</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.32500000000000001</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.35</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.375</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.42499999999999999</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.45</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.47499999999999998</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.52500000000000002</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.55000000000000004</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.57499999999999996</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.625</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.65</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.67500000000000004</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.72499999999999998</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.75</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.77500000000000002</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.82499999999999996</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.85</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.875</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.92500000000000004</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.95</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.97499999999999998</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$R$6:$R$45</c:f>
+              <c:f>Sheet1!$R$6:$R$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>10.112399999999999</c:v>
+                  <c:v>11.8706</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12.1044</c:v>
+                  <c:v>12.4438</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>13.015000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13.742699999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14.506</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15.194900000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15.8127</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16.5303</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>17.688600000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45.227600000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-1FA1-BD46-88A9-7239EDE3F4AE}"/>
+              <c16:uniqueId val="{00000000-8BC5-7241-8B03-C2A7D14F8342}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -984,15 +675,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="220395248"/>
-        <c:axId val="220414480"/>
+        <c:axId val="891728976"/>
+        <c:axId val="891730688"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="220395248"/>
+        <c:axId val="891728976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="0.1"/>
-          <c:min val="2.5000000000000001E-2"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1010,36 +699,6 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:title>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-KR"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1077,16 +736,14 @@
             <a:endParaRPr lang="en-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="220414480"/>
+        <c:crossAx val="891730688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="220414480"/>
+        <c:axId val="891730688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="300"/>
-          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1104,36 +761,6 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:title>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-KR"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1171,7 +798,7 @@
             <a:endParaRPr lang="en-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="220395248"/>
+        <c:crossAx val="891728976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1242,31 +869,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>32-1024</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1300,17 +902,20 @@
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+        <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$R$53</c:f>
+              <c:f>Sheet1!$AD$4:$AD$5</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
+                  <c:v>UGAL-16-256 ADV</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>Latency</c:v>
                 </c:pt>
               </c:strCache>
@@ -1342,10 +947,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$Q$54:$Q$93</c:f>
+              <c:f>Sheet1!$AC$6:$AC$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>2.5000000000000001E-2</c:v>
                 </c:pt>
@@ -1378,107 +983,47 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0.27500000000000002</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.32500000000000001</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.35</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.375</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.42499999999999999</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.45</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.47499999999999998</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.52500000000000002</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.55000000000000004</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.57499999999999996</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.625</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.65</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.67500000000000004</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.72499999999999998</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.75</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.77500000000000002</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.82499999999999996</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.85</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.875</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.92500000000000004</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.95</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.97499999999999998</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$R$54:$R$93</c:f>
+              <c:f>Sheet1!$AD$6:$AD$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>12.102499999999999</c:v>
+                  <c:v>11.8706</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>12.4438</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.015000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13.742699999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14.506</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15.194900000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15.8127</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16.5303</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>17.688600000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45.227600000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>500</c:v>
                 </c:pt>
               </c:numCache>
@@ -1487,7 +1032,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0978-504D-ACF1-540BF0B6EE13}"/>
+              <c16:uniqueId val="{00000000-E8A4-D34F-83B4-CC9BED53DF13}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1499,15 +1044,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="220483360"/>
-        <c:axId val="220485072"/>
+        <c:axId val="892794208"/>
+        <c:axId val="892795936"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="220483360"/>
+        <c:axId val="892794208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="0.05"/>
-          <c:min val="2.5000000000000001E-2"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1525,66 +1068,6 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Injection</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> Rate</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-KR"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1622,15 +1105,14 @@
             <a:endParaRPr lang="en-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="220485072"/>
+        <c:crossAx val="892795936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="220485072"/>
+        <c:axId val="892795936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="300"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1648,61 +1130,6 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Latency</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-KR"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1740,7 +1167,439 @@
             <a:endParaRPr lang="en-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="220483360"/>
+        <c:crossAx val="892794208"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AD$52:$AD$53</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>UGAL-16-256 UNI</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Latency</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$AC$54:$AC$75</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>2.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.4999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.17499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.22500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.27500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.32500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.375</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.42499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.47499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.52500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$AD$54:$AD$75</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>9.7370099999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.0905</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.3222</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.4625</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.5944</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.671200000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10.7384</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.8515</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10.9567</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11.095599999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.2408</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11.440799999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>11.7326</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>12.0481</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>12.513500000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>13.164899999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>14.145899999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>16.047799999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>21.1157</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>146.27000000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>469.233</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7283-7F46-B373-9A883684D1E2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="892824656"/>
+        <c:axId val="892826384"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="892824656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="892826384"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="892826384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="892824656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1916,6 +1775,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -2949,6 +2848,522 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3469,22 +3884,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>543717</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>12171</xdr:rowOff>
+      <xdr:colOff>760016</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>196057</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>297655</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>74083</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>331391</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>161132</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4">
+        <xdr:cNvPr id="13" name="Chart 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{898633D0-1041-A161-D610-BD43E9C657C2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5455E9E7-3802-78EA-EEC7-92F4EC8E6867}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3505,22 +3920,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>275166</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>205315</xdr:rowOff>
+      <xdr:colOff>184547</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>126999</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>211665</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>589359</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>84137</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5">
+        <xdr:cNvPr id="14" name="Chart 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E466BCE-B027-E716-41D8-0A749AA86DE2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{256F68C9-50F4-E00C-FF5E-E3F0584E35D9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3540,23 +3955,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>800100</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>482203</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>196057</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>736600</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>53578</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>161132</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Chart 6">
+        <xdr:cNvPr id="15" name="Chart 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E47FD74-7B85-78A0-DF18-DC5D32B34B81}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81BE2B0C-18F1-684D-0978-25822BF030F0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3569,6 +3984,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>263923</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>668735</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>141287</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="16" name="Chart 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A31BA98-D47E-3A57-F740-ED5668CE5301}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3894,20 +4345,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{173CCB5C-070E-7C49-8579-8FD62CA55CA2}">
-  <dimension ref="A4:R93"/>
+  <dimension ref="A4:AD93"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="64" workbookViewId="0">
+      <selection activeCell="AM56" sqref="AM56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="Q4" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="AC4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
@@ -3917,8 +4371,14 @@
       <c r="R5" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="AC5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -3929,146 +4389,232 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="R6" s="1">
-        <v>10.112399999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+        <v>11.8706</v>
+      </c>
+      <c r="AC6" s="1">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AD6" s="1">
+        <v>11.8706</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="B7" s="1">
-        <v>9.6965400000000006</v>
+        <v>9.7136999999999993</v>
       </c>
       <c r="Q7" s="1">
         <v>0.05</v>
       </c>
       <c r="R7" s="1">
-        <v>12.1044</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+        <v>12.4438</v>
+      </c>
+      <c r="AC7" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="AD7" s="1">
+        <v>12.4438</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>0.05</v>
       </c>
       <c r="B8" s="1">
-        <v>9.7944999999999993</v>
+        <v>9.8029299999999999</v>
       </c>
       <c r="Q8" s="1">
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="R8" s="1">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+        <v>13.015000000000001</v>
+      </c>
+      <c r="AC8" s="1">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="AD8" s="1">
+        <v>13.015000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="B9" s="1">
-        <v>9.9108699999999992</v>
+        <v>9.9278999999999993</v>
       </c>
       <c r="Q9" s="1">
         <v>0.1</v>
       </c>
-      <c r="R9" s="1"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R9" s="1">
+        <v>13.742699999999999</v>
+      </c>
+      <c r="AC9" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="AD9" s="1">
+        <v>13.742699999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>0.1</v>
       </c>
       <c r="B10" s="1">
-        <v>10.0518</v>
+        <v>10.0487</v>
       </c>
       <c r="Q10" s="1">
         <v>0.125</v>
       </c>
-      <c r="R10" s="1"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R10" s="1">
+        <v>14.506</v>
+      </c>
+      <c r="AC10" s="1">
+        <v>0.125</v>
+      </c>
+      <c r="AD10" s="1">
+        <v>14.506</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>0.125</v>
       </c>
       <c r="B11" s="1">
-        <v>10.257899999999999</v>
+        <v>10.2492</v>
       </c>
       <c r="Q11" s="1">
         <v>0.15</v>
       </c>
-      <c r="R11" s="1"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R11" s="1">
+        <v>15.194900000000001</v>
+      </c>
+      <c r="AC11" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="AD11" s="1">
+        <v>15.194900000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>0.15</v>
       </c>
       <c r="B12" s="1">
-        <v>10.509499999999999</v>
+        <v>10.4968</v>
       </c>
       <c r="Q12" s="1">
         <v>0.17499999999999999</v>
       </c>
-      <c r="R12" s="1"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R12" s="1">
+        <v>15.8127</v>
+      </c>
+      <c r="AC12" s="1">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="AD12" s="1">
+        <v>15.8127</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>0.17499999999999999</v>
       </c>
       <c r="B13" s="1">
-        <v>10.953799999999999</v>
+        <v>10.936999999999999</v>
       </c>
       <c r="Q13" s="1">
         <v>0.2</v>
       </c>
-      <c r="R13" s="1"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R13" s="1">
+        <v>16.5303</v>
+      </c>
+      <c r="AC13" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="AD13" s="1">
+        <v>16.5303</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>0.2</v>
       </c>
       <c r="B14" s="1">
-        <v>11.71</v>
+        <v>11.832000000000001</v>
       </c>
       <c r="Q14" s="1">
         <v>0.22500000000000001</v>
       </c>
-      <c r="R14" s="1"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R14" s="1">
+        <v>17.688600000000001</v>
+      </c>
+      <c r="AC14" s="1">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="AD14" s="1">
+        <v>17.688600000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>0.22500000000000001</v>
       </c>
       <c r="B15" s="1">
-        <v>13.765700000000001</v>
+        <v>13.9999</v>
       </c>
       <c r="Q15" s="1">
         <v>0.25</v>
       </c>
-      <c r="R15" s="1"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R15" s="1">
+        <v>45.227600000000002</v>
+      </c>
+      <c r="AC15" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="AD15" s="1">
+        <v>45.227600000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>0.25</v>
       </c>
       <c r="B16" s="1">
-        <v>60.6464</v>
+        <v>72.271799999999999</v>
       </c>
       <c r="Q16" s="1">
         <v>0.27500000000000002</v>
       </c>
-      <c r="R16" s="1"/>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R16" s="1">
+        <v>500</v>
+      </c>
+      <c r="AC16" s="1">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="AD16" s="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>0.27500000000000002</v>
       </c>
       <c r="B17" s="1">
-        <v>500</v>
+        <v>658.35799999999995</v>
       </c>
       <c r="Q17" s="1">
         <v>0.3</v>
       </c>
       <c r="R17" s="1"/>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="AC17" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="AD17" s="1"/>
+    </row>
+    <row r="18" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>0.3</v>
       </c>
@@ -4077,8 +4623,12 @@
         <v>0.32500000000000001</v>
       </c>
       <c r="R18" s="1"/>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="AC18" s="1">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="AD18" s="1"/>
+    </row>
+    <row r="19" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>0.32500000000000001</v>
       </c>
@@ -4087,8 +4637,12 @@
         <v>0.35</v>
       </c>
       <c r="R19" s="1"/>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="AC19" s="1">
+        <v>0.35</v>
+      </c>
+      <c r="AD19" s="1"/>
+    </row>
+    <row r="20" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>0.35</v>
       </c>
@@ -4097,8 +4651,12 @@
         <v>0.375</v>
       </c>
       <c r="R20" s="1"/>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="AC20" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="AD20" s="1"/>
+    </row>
+    <row r="21" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>0.375</v>
       </c>
@@ -4107,8 +4665,12 @@
         <v>0.4</v>
       </c>
       <c r="R21" s="1"/>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="AC21" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="AD21" s="1"/>
+    </row>
+    <row r="22" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>0.4</v>
       </c>
@@ -4117,8 +4679,12 @@
         <v>0.42499999999999999</v>
       </c>
       <c r="R22" s="1"/>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="AC22" s="1">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="AD22" s="1"/>
+    </row>
+    <row r="23" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>0.42499999999999999</v>
       </c>
@@ -4127,8 +4693,12 @@
         <v>0.45</v>
       </c>
       <c r="R23" s="1"/>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="AC23" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="AD23" s="1"/>
+    </row>
+    <row r="24" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>0.45</v>
       </c>
@@ -4137,8 +4707,12 @@
         <v>0.47499999999999998</v>
       </c>
       <c r="R24" s="1"/>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="AC24" s="1">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="AD24" s="1"/>
+    </row>
+    <row r="25" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>0.47499999999999998</v>
       </c>
@@ -4147,8 +4721,12 @@
         <v>0.5</v>
       </c>
       <c r="R25" s="1"/>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="AC25" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AD25" s="1"/>
+    </row>
+    <row r="26" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>0.5</v>
       </c>
@@ -4157,8 +4735,12 @@
         <v>0.52500000000000002</v>
       </c>
       <c r="R26" s="1"/>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="AC26" s="1">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="AD26" s="1"/>
+    </row>
+    <row r="27" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>0.52500000000000002</v>
       </c>
@@ -4167,8 +4749,12 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="R27" s="1"/>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="AC27" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AD27" s="1"/>
+    </row>
+    <row r="28" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>0.55000000000000004</v>
       </c>
@@ -4177,8 +4763,12 @@
         <v>0.57499999999999996</v>
       </c>
       <c r="R28" s="1"/>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="AC28" s="1">
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="AD28" s="1"/>
+    </row>
+    <row r="29" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>0.57499999999999996</v>
       </c>
@@ -4187,8 +4777,12 @@
         <v>0.6</v>
       </c>
       <c r="R29" s="1"/>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="AC29" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="AD29" s="1"/>
+    </row>
+    <row r="30" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>0.6</v>
       </c>
@@ -4197,8 +4791,12 @@
         <v>0.625</v>
       </c>
       <c r="R30" s="1"/>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="AC30" s="1">
+        <v>0.625</v>
+      </c>
+      <c r="AD30" s="1"/>
+    </row>
+    <row r="31" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>0.625</v>
       </c>
@@ -4207,8 +4805,12 @@
         <v>0.65</v>
       </c>
       <c r="R31" s="1"/>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="AC31" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="AD31" s="1"/>
+    </row>
+    <row r="32" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>0.65</v>
       </c>
@@ -4217,8 +4819,12 @@
         <v>0.67500000000000004</v>
       </c>
       <c r="R32" s="1"/>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="AC32" s="1">
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="AD32" s="1"/>
+    </row>
+    <row r="33" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>0.67500000000000004</v>
       </c>
@@ -4227,8 +4833,12 @@
         <v>0.7</v>
       </c>
       <c r="R33" s="1"/>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="AC33" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="AD33" s="1"/>
+    </row>
+    <row r="34" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>0.7</v>
       </c>
@@ -4237,8 +4847,12 @@
         <v>0.72499999999999998</v>
       </c>
       <c r="R34" s="1"/>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="AC34" s="1">
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="AD34" s="1"/>
+    </row>
+    <row r="35" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>0.72499999999999998</v>
       </c>
@@ -4247,8 +4861,12 @@
         <v>0.75</v>
       </c>
       <c r="R35" s="1"/>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="AC35" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="AD35" s="1"/>
+    </row>
+    <row r="36" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>0.75</v>
       </c>
@@ -4257,8 +4875,12 @@
         <v>0.77500000000000002</v>
       </c>
       <c r="R36" s="1"/>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="AC36" s="1">
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="AD36" s="1"/>
+    </row>
+    <row r="37" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>0.77500000000000002</v>
       </c>
@@ -4267,8 +4889,12 @@
         <v>0.8</v>
       </c>
       <c r="R37" s="1"/>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="AC37" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="AD37" s="1"/>
+    </row>
+    <row r="38" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>0.8</v>
       </c>
@@ -4277,8 +4903,12 @@
         <v>0.82499999999999996</v>
       </c>
       <c r="R38" s="1"/>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="AC38" s="1">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="AD38" s="1"/>
+    </row>
+    <row r="39" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>0.82499999999999996</v>
       </c>
@@ -4287,8 +4917,12 @@
         <v>0.85</v>
       </c>
       <c r="R39" s="1"/>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="AC39" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="AD39" s="1"/>
+    </row>
+    <row r="40" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>0.85</v>
       </c>
@@ -4297,8 +4931,12 @@
         <v>0.875</v>
       </c>
       <c r="R40" s="1"/>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="AC40" s="1">
+        <v>0.875</v>
+      </c>
+      <c r="AD40" s="1"/>
+    </row>
+    <row r="41" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>0.875</v>
       </c>
@@ -4307,8 +4945,12 @@
         <v>0.9</v>
       </c>
       <c r="R41" s="1"/>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="AC41" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="AD41" s="1"/>
+    </row>
+    <row r="42" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>0.9</v>
       </c>
@@ -4317,8 +4959,12 @@
         <v>0.92500000000000004</v>
       </c>
       <c r="R42" s="1"/>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="AC42" s="1">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="AD42" s="1"/>
+    </row>
+    <row r="43" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>0.92500000000000004</v>
       </c>
@@ -4327,8 +4973,12 @@
         <v>0.95</v>
       </c>
       <c r="R43" s="1"/>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="AC43" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="AD43" s="1"/>
+    </row>
+    <row r="44" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>0.95</v>
       </c>
@@ -4337,8 +4987,12 @@
         <v>0.97499999999999998</v>
       </c>
       <c r="R44" s="1"/>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="AC44" s="1">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="AD44" s="1"/>
+    </row>
+    <row r="45" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>0.97499999999999998</v>
       </c>
@@ -4347,269 +5001,484 @@
         <v>1</v>
       </c>
       <c r="R45" s="1"/>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="AC45" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD45" s="1"/>
+    </row>
+    <row r="46" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>1</v>
       </c>
       <c r="B46" s="1"/>
     </row>
-    <row r="52" spans="17:18" x14ac:dyDescent="0.2">
+    <row r="52" spans="17:30" x14ac:dyDescent="0.2">
       <c r="Q52" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="17:18" x14ac:dyDescent="0.2">
+      <c r="AC52" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="17:30" x14ac:dyDescent="0.2">
       <c r="Q53" s="1" t="s">
         <v>0</v>
       </c>
       <c r="R53" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="17:18" x14ac:dyDescent="0.2">
+      <c r="AC53" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD53" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="17:30" x14ac:dyDescent="0.2">
       <c r="Q54" s="1">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="R54" s="1">
-        <v>12.102499999999999</v>
-      </c>
-    </row>
-    <row r="55" spans="17:18" x14ac:dyDescent="0.2">
+        <v>12.2849</v>
+      </c>
+      <c r="AC54" s="1">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AD54" s="1">
+        <v>9.7370099999999997</v>
+      </c>
+    </row>
+    <row r="55" spans="17:30" x14ac:dyDescent="0.2">
       <c r="Q55" s="1">
         <v>0.05</v>
       </c>
       <c r="R55" s="1">
         <v>500</v>
       </c>
-    </row>
-    <row r="56" spans="17:18" x14ac:dyDescent="0.2">
+      <c r="AC55" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="AD55" s="1">
+        <v>10.0905</v>
+      </c>
+    </row>
+    <row r="56" spans="17:30" x14ac:dyDescent="0.2">
       <c r="Q56" s="1">
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="R56" s="1"/>
-    </row>
-    <row r="57" spans="17:18" x14ac:dyDescent="0.2">
+      <c r="AC56" s="1">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="AD56" s="1">
+        <v>10.3222</v>
+      </c>
+    </row>
+    <row r="57" spans="17:30" x14ac:dyDescent="0.2">
       <c r="Q57" s="1">
         <v>0.1</v>
       </c>
       <c r="R57" s="1"/>
-    </row>
-    <row r="58" spans="17:18" x14ac:dyDescent="0.2">
+      <c r="AC57" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="AD57" s="1">
+        <v>10.4625</v>
+      </c>
+    </row>
+    <row r="58" spans="17:30" x14ac:dyDescent="0.2">
       <c r="Q58" s="1">
         <v>0.125</v>
       </c>
       <c r="R58" s="1"/>
-    </row>
-    <row r="59" spans="17:18" x14ac:dyDescent="0.2">
+      <c r="AC58" s="1">
+        <v>0.125</v>
+      </c>
+      <c r="AD58" s="1">
+        <v>10.5944</v>
+      </c>
+    </row>
+    <row r="59" spans="17:30" x14ac:dyDescent="0.2">
       <c r="Q59" s="1">
         <v>0.15</v>
       </c>
       <c r="R59" s="1"/>
-    </row>
-    <row r="60" spans="17:18" x14ac:dyDescent="0.2">
+      <c r="AC59" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="AD59" s="1">
+        <v>10.671200000000001</v>
+      </c>
+    </row>
+    <row r="60" spans="17:30" x14ac:dyDescent="0.2">
       <c r="Q60" s="1">
         <v>0.17499999999999999</v>
       </c>
       <c r="R60" s="1"/>
-    </row>
-    <row r="61" spans="17:18" x14ac:dyDescent="0.2">
+      <c r="AC60" s="1">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="AD60" s="1">
+        <v>10.7384</v>
+      </c>
+    </row>
+    <row r="61" spans="17:30" x14ac:dyDescent="0.2">
       <c r="Q61" s="1">
         <v>0.2</v>
       </c>
       <c r="R61" s="1"/>
-    </row>
-    <row r="62" spans="17:18" x14ac:dyDescent="0.2">
+      <c r="AC61" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="AD61" s="1">
+        <v>10.8515</v>
+      </c>
+    </row>
+    <row r="62" spans="17:30" x14ac:dyDescent="0.2">
       <c r="Q62" s="1">
         <v>0.22500000000000001</v>
       </c>
       <c r="R62" s="1"/>
-    </row>
-    <row r="63" spans="17:18" x14ac:dyDescent="0.2">
+      <c r="AC62" s="1">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="AD62" s="1">
+        <v>10.9567</v>
+      </c>
+    </row>
+    <row r="63" spans="17:30" x14ac:dyDescent="0.2">
       <c r="Q63" s="1">
         <v>0.25</v>
       </c>
       <c r="R63" s="1"/>
-    </row>
-    <row r="64" spans="17:18" x14ac:dyDescent="0.2">
+      <c r="AC63" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="AD63" s="1">
+        <v>11.095599999999999</v>
+      </c>
+    </row>
+    <row r="64" spans="17:30" x14ac:dyDescent="0.2">
       <c r="Q64" s="1">
         <v>0.27500000000000002</v>
       </c>
       <c r="R64" s="1"/>
-    </row>
-    <row r="65" spans="17:18" x14ac:dyDescent="0.2">
+      <c r="AC64" s="1">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="AD64" s="1">
+        <v>11.2408</v>
+      </c>
+    </row>
+    <row r="65" spans="17:30" x14ac:dyDescent="0.2">
       <c r="Q65" s="1">
         <v>0.3</v>
       </c>
       <c r="R65" s="1"/>
-    </row>
-    <row r="66" spans="17:18" x14ac:dyDescent="0.2">
+      <c r="AC65" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="AD65" s="1">
+        <v>11.440799999999999</v>
+      </c>
+    </row>
+    <row r="66" spans="17:30" x14ac:dyDescent="0.2">
       <c r="Q66" s="1">
         <v>0.32500000000000001</v>
       </c>
       <c r="R66" s="1"/>
-    </row>
-    <row r="67" spans="17:18" x14ac:dyDescent="0.2">
+      <c r="AC66" s="1">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="AD66" s="1">
+        <v>11.7326</v>
+      </c>
+    </row>
+    <row r="67" spans="17:30" x14ac:dyDescent="0.2">
       <c r="Q67" s="1">
         <v>0.35</v>
       </c>
       <c r="R67" s="1"/>
-    </row>
-    <row r="68" spans="17:18" x14ac:dyDescent="0.2">
+      <c r="AC67" s="1">
+        <v>0.35</v>
+      </c>
+      <c r="AD67" s="1">
+        <v>12.0481</v>
+      </c>
+    </row>
+    <row r="68" spans="17:30" x14ac:dyDescent="0.2">
       <c r="Q68" s="1">
         <v>0.375</v>
       </c>
       <c r="R68" s="1"/>
-    </row>
-    <row r="69" spans="17:18" x14ac:dyDescent="0.2">
+      <c r="AC68" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="AD68" s="1">
+        <v>12.513500000000001</v>
+      </c>
+    </row>
+    <row r="69" spans="17:30" x14ac:dyDescent="0.2">
       <c r="Q69" s="1">
         <v>0.4</v>
       </c>
       <c r="R69" s="1"/>
-    </row>
-    <row r="70" spans="17:18" x14ac:dyDescent="0.2">
+      <c r="AC69" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="AD69" s="1">
+        <v>13.164899999999999</v>
+      </c>
+    </row>
+    <row r="70" spans="17:30" x14ac:dyDescent="0.2">
       <c r="Q70" s="1">
         <v>0.42499999999999999</v>
       </c>
       <c r="R70" s="1"/>
-    </row>
-    <row r="71" spans="17:18" x14ac:dyDescent="0.2">
+      <c r="AC70" s="1">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="AD70" s="1">
+        <v>14.145899999999999</v>
+      </c>
+    </row>
+    <row r="71" spans="17:30" x14ac:dyDescent="0.2">
       <c r="Q71" s="1">
         <v>0.45</v>
       </c>
       <c r="R71" s="1"/>
-    </row>
-    <row r="72" spans="17:18" x14ac:dyDescent="0.2">
+      <c r="AC71" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="AD71" s="1">
+        <v>16.047799999999999</v>
+      </c>
+    </row>
+    <row r="72" spans="17:30" x14ac:dyDescent="0.2">
       <c r="Q72" s="1">
         <v>0.47499999999999998</v>
       </c>
       <c r="R72" s="1"/>
-    </row>
-    <row r="73" spans="17:18" x14ac:dyDescent="0.2">
+      <c r="AC72" s="1">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="AD72" s="1">
+        <v>21.1157</v>
+      </c>
+    </row>
+    <row r="73" spans="17:30" x14ac:dyDescent="0.2">
       <c r="Q73" s="1">
         <v>0.5</v>
       </c>
       <c r="R73" s="1"/>
-    </row>
-    <row r="74" spans="17:18" x14ac:dyDescent="0.2">
+      <c r="AC73" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AD73" s="1">
+        <v>146.27000000000001</v>
+      </c>
+    </row>
+    <row r="74" spans="17:30" x14ac:dyDescent="0.2">
       <c r="Q74" s="1">
         <v>0.52500000000000002</v>
       </c>
       <c r="R74" s="1"/>
-    </row>
-    <row r="75" spans="17:18" x14ac:dyDescent="0.2">
+      <c r="AC74" s="1">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="AD74" s="1">
+        <v>469.233</v>
+      </c>
+    </row>
+    <row r="75" spans="17:30" x14ac:dyDescent="0.2">
       <c r="Q75" s="1">
         <v>0.55000000000000004</v>
       </c>
       <c r="R75" s="1"/>
-    </row>
-    <row r="76" spans="17:18" x14ac:dyDescent="0.2">
+      <c r="AC75" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AD75" s="1"/>
+    </row>
+    <row r="76" spans="17:30" x14ac:dyDescent="0.2">
       <c r="Q76" s="1">
         <v>0.57499999999999996</v>
       </c>
       <c r="R76" s="1"/>
-    </row>
-    <row r="77" spans="17:18" x14ac:dyDescent="0.2">
+      <c r="AC76" s="1">
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="AD76" s="1"/>
+    </row>
+    <row r="77" spans="17:30" x14ac:dyDescent="0.2">
       <c r="Q77" s="1">
         <v>0.6</v>
       </c>
       <c r="R77" s="1"/>
-    </row>
-    <row r="78" spans="17:18" x14ac:dyDescent="0.2">
+      <c r="AC77" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="AD77" s="1"/>
+    </row>
+    <row r="78" spans="17:30" x14ac:dyDescent="0.2">
       <c r="Q78" s="1">
         <v>0.625</v>
       </c>
       <c r="R78" s="1"/>
-    </row>
-    <row r="79" spans="17:18" x14ac:dyDescent="0.2">
+      <c r="AC78" s="1">
+        <v>0.625</v>
+      </c>
+      <c r="AD78" s="1"/>
+    </row>
+    <row r="79" spans="17:30" x14ac:dyDescent="0.2">
       <c r="Q79" s="1">
         <v>0.65</v>
       </c>
       <c r="R79" s="1"/>
-    </row>
-    <row r="80" spans="17:18" x14ac:dyDescent="0.2">
+      <c r="AC79" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="AD79" s="1"/>
+    </row>
+    <row r="80" spans="17:30" x14ac:dyDescent="0.2">
       <c r="Q80" s="1">
         <v>0.67500000000000004</v>
       </c>
       <c r="R80" s="1"/>
-    </row>
-    <row r="81" spans="17:18" x14ac:dyDescent="0.2">
+      <c r="AC80" s="1">
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="AD80" s="1"/>
+    </row>
+    <row r="81" spans="17:30" x14ac:dyDescent="0.2">
       <c r="Q81" s="1">
         <v>0.7</v>
       </c>
       <c r="R81" s="1"/>
-    </row>
-    <row r="82" spans="17:18" x14ac:dyDescent="0.2">
+      <c r="AC81" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="AD81" s="1"/>
+    </row>
+    <row r="82" spans="17:30" x14ac:dyDescent="0.2">
       <c r="Q82" s="1">
         <v>0.72499999999999998</v>
       </c>
       <c r="R82" s="1"/>
-    </row>
-    <row r="83" spans="17:18" x14ac:dyDescent="0.2">
+      <c r="AC82" s="1">
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="AD82" s="1"/>
+    </row>
+    <row r="83" spans="17:30" x14ac:dyDescent="0.2">
       <c r="Q83" s="1">
         <v>0.75</v>
       </c>
       <c r="R83" s="1"/>
-    </row>
-    <row r="84" spans="17:18" x14ac:dyDescent="0.2">
+      <c r="AC83" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="AD83" s="1"/>
+    </row>
+    <row r="84" spans="17:30" x14ac:dyDescent="0.2">
       <c r="Q84" s="1">
         <v>0.77500000000000002</v>
       </c>
       <c r="R84" s="1"/>
-    </row>
-    <row r="85" spans="17:18" x14ac:dyDescent="0.2">
+      <c r="AC84" s="1">
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="AD84" s="1"/>
+    </row>
+    <row r="85" spans="17:30" x14ac:dyDescent="0.2">
       <c r="Q85" s="1">
         <v>0.8</v>
       </c>
       <c r="R85" s="1"/>
-    </row>
-    <row r="86" spans="17:18" x14ac:dyDescent="0.2">
+      <c r="AC85" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="AD85" s="1"/>
+    </row>
+    <row r="86" spans="17:30" x14ac:dyDescent="0.2">
       <c r="Q86" s="1">
         <v>0.82499999999999996</v>
       </c>
       <c r="R86" s="1"/>
-    </row>
-    <row r="87" spans="17:18" x14ac:dyDescent="0.2">
+      <c r="AC86" s="1">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="AD86" s="1"/>
+    </row>
+    <row r="87" spans="17:30" x14ac:dyDescent="0.2">
       <c r="Q87" s="1">
         <v>0.85</v>
       </c>
       <c r="R87" s="1"/>
-    </row>
-    <row r="88" spans="17:18" x14ac:dyDescent="0.2">
+      <c r="AC87" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="AD87" s="1"/>
+    </row>
+    <row r="88" spans="17:30" x14ac:dyDescent="0.2">
       <c r="Q88" s="1">
         <v>0.875</v>
       </c>
       <c r="R88" s="1"/>
-    </row>
-    <row r="89" spans="17:18" x14ac:dyDescent="0.2">
+      <c r="AC88" s="1">
+        <v>0.875</v>
+      </c>
+      <c r="AD88" s="1"/>
+    </row>
+    <row r="89" spans="17:30" x14ac:dyDescent="0.2">
       <c r="Q89" s="1">
         <v>0.9</v>
       </c>
       <c r="R89" s="1"/>
-    </row>
-    <row r="90" spans="17:18" x14ac:dyDescent="0.2">
+      <c r="AC89" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="AD89" s="1"/>
+    </row>
+    <row r="90" spans="17:30" x14ac:dyDescent="0.2">
       <c r="Q90" s="1">
         <v>0.92500000000000004</v>
       </c>
       <c r="R90" s="1"/>
-    </row>
-    <row r="91" spans="17:18" x14ac:dyDescent="0.2">
+      <c r="AC90" s="1">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="AD90" s="1"/>
+    </row>
+    <row r="91" spans="17:30" x14ac:dyDescent="0.2">
       <c r="Q91" s="1">
         <v>0.95</v>
       </c>
       <c r="R91" s="1"/>
-    </row>
-    <row r="92" spans="17:18" x14ac:dyDescent="0.2">
+      <c r="AC91" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="AD91" s="1"/>
+    </row>
+    <row r="92" spans="17:30" x14ac:dyDescent="0.2">
       <c r="Q92" s="1">
         <v>0.97499999999999998</v>
       </c>
       <c r="R92" s="1"/>
-    </row>
-    <row r="93" spans="17:18" x14ac:dyDescent="0.2">
+      <c r="AC92" s="1">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="AD92" s="1"/>
+    </row>
+    <row r="93" spans="17:30" x14ac:dyDescent="0.2">
       <c r="Q93" s="1">
         <v>1</v>
       </c>
       <c r="R93" s="1"/>
+      <c r="AC93" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD93" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/tutorials/3/plots.xlsx
+++ b/tutorials/3/plots.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fisma/Study/booksim-tutorial/tutorials/3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93F33353-ADA4-7747-83BD-5307BD216F02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D34DCD64-FFCE-5445-9C8F-BBF81BFE6348}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{B7203DE1-6AAA-1F4E-B905-4336653FF6C7}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="9">
   <si>
     <t>Injection Rate</t>
   </si>
@@ -57,6 +57,12 @@
   </si>
   <si>
     <t>UGAL-16-256 UNI</t>
+  </si>
+  <si>
+    <t>UGAL-32-1024 ADV</t>
+  </si>
+  <si>
+    <t>UGAL-32-1024 UNI</t>
   </si>
 </sst>
 </file>
@@ -256,37 +262,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>9.7136999999999993</c:v>
+                  <c:v>6.0470300000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.8029299999999999</c:v>
+                  <c:v>6.1015800000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.9278999999999993</c:v>
+                  <c:v>6.16662</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10.0487</c:v>
+                  <c:v>6.2422700000000004</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10.2492</c:v>
+                  <c:v>6.3569300000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10.4968</c:v>
+                  <c:v>6.5471700000000004</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10.936999999999999</c:v>
+                  <c:v>6.8864200000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>11.832000000000001</c:v>
+                  <c:v>7.5638100000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>13.9999</c:v>
+                  <c:v>9.4183400000000006</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>72.271799999999999</c:v>
+                  <c:v>65.409300000000002</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>658.35799999999995</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -578,10 +584,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$Q$6:$Q$16</c:f>
+              <c:f>Sheet1!$Q$6:$Q$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>2.5000000000000001E-2</c:v>
                 </c:pt>
@@ -614,47 +620,83 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0.27500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.32500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.375</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.42499999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$R$6:$R$16</c:f>
+              <c:f>Sheet1!$R$6:$R$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>11.8706</c:v>
+                  <c:v>7.0127300000000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12.4438</c:v>
+                  <c:v>7.2858700000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13.015000000000001</c:v>
+                  <c:v>7.4444100000000004</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13.742699999999999</c:v>
+                  <c:v>7.5825500000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>14.506</c:v>
+                  <c:v>7.7391899999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15.194900000000001</c:v>
+                  <c:v>7.9120100000000004</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>15.8127</c:v>
+                  <c:v>8.1111599999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>16.5303</c:v>
+                  <c:v>8.3328199999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>17.688600000000001</c:v>
+                  <c:v>8.5380699999999994</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>45.227600000000002</c:v>
+                  <c:v>8.7639200000000006</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>9.0407299999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.33507</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9.6427300000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10.024100000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10.684699999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>209.01300000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>500</c:v>
                 </c:pt>
               </c:numCache>
@@ -947,10 +989,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$AC$6:$AC$16</c:f>
+              <c:f>Sheet1!$AC$6:$AC$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>2.5000000000000001E-2</c:v>
                 </c:pt>
@@ -983,47 +1025,83 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0.27500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.32500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.375</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.42499999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$AD$6:$AD$16</c:f>
+              <c:f>Sheet1!$AD$6:$AD$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>11.8706</c:v>
+                  <c:v>7.0127300000000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12.4438</c:v>
+                  <c:v>7.2858700000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13.015000000000001</c:v>
+                  <c:v>7.4444100000000004</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13.742699999999999</c:v>
+                  <c:v>7.5825500000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>14.506</c:v>
+                  <c:v>7.7391899999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15.194900000000001</c:v>
+                  <c:v>7.9120100000000004</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>15.8127</c:v>
+                  <c:v>8.1111599999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>16.5303</c:v>
+                  <c:v>8.3328199999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>17.688600000000001</c:v>
+                  <c:v>8.5380699999999994</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>45.227600000000002</c:v>
+                  <c:v>8.7639200000000006</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>9.0407299999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.33507</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9.6427300000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10.024100000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10.684699999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>209.01300000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>500</c:v>
                 </c:pt>
               </c:numCache>
@@ -1316,10 +1394,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$AC$54:$AC$75</c:f>
+              <c:f>Sheet1!$AC$54:$AC$93</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>2.5000000000000001E-2</c:v>
                 </c:pt>
@@ -1385,78 +1463,180 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.57499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.625</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.67500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.72499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.77500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.82499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.875</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.92500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.97499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$AD$54:$AD$75</c:f>
+              <c:f>Sheet1!$AD$54:$AD$93</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
-                  <c:v>9.7370099999999997</c:v>
+                  <c:v>6.01539</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10.0905</c:v>
+                  <c:v>6.1556600000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10.3222</c:v>
+                  <c:v>6.2647199999999996</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10.4625</c:v>
+                  <c:v>6.3636400000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10.5944</c:v>
+                  <c:v>6.4409799999999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10.671200000000001</c:v>
+                  <c:v>6.5090899999999996</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10.7384</c:v>
+                  <c:v>6.5481499999999997</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10.8515</c:v>
+                  <c:v>6.6013900000000003</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10.9567</c:v>
+                  <c:v>6.6374599999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>11.095599999999999</c:v>
+                  <c:v>6.67509</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11.2408</c:v>
+                  <c:v>6.7086399999999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>11.440799999999999</c:v>
+                  <c:v>6.75685</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>11.7326</c:v>
+                  <c:v>6.8004699999999998</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>12.0481</c:v>
+                  <c:v>6.84795</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>12.513500000000001</c:v>
+                  <c:v>6.8907699999999998</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>13.164899999999999</c:v>
+                  <c:v>6.9578300000000004</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>14.145899999999999</c:v>
+                  <c:v>7.0281900000000004</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>16.047799999999999</c:v>
+                  <c:v>7.1050000000000004</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>21.1157</c:v>
+                  <c:v>7.1845400000000001</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>146.27000000000001</c:v>
+                  <c:v>7.28233</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>469.233</c:v>
+                  <c:v>7.3817599999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7.5119600000000002</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7.6585400000000003</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7.8183600000000002</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>8.0097500000000004</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>8.2284000000000006</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>8.4909599999999994</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>8.7980999999999998</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>9.2014700000000005</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>9.6399600000000003</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>10.254</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>11.085100000000001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>12.3187</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>14.352600000000001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>22.949200000000001</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>149.72499999999999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>331.846</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1600,6 +1780,1008 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="892824656"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AN$4:$AN$5</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>UGAL-32-1024 ADV</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Latency</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$AM$6:$AM$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>2.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.4999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.17499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.22500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.27500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.32500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.375</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.42499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.47499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.52500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.57499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.625</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.67500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.72499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.77500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.82499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.875</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.92500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.97499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$AN$6:$AN$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>7.3687800000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.6095199999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.7631100000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.92455</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.1041600000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.2700399999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.4257200000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.5699400000000008</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.7524099999999994</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.9565999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.1382100000000008</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.3721700000000006</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9.7096300000000006</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10.1355</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A9CD-3B43-9DEC-7865098AEFAD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1781138767"/>
+        <c:axId val="1781187231"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1781138767"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1781187231"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1781187231"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1781138767"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AN$51:$AN$52</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>UGAL-32-1024 UNI</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Latency</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$AM$53:$AM$92</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>2.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.4999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.17499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.22500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.27500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.32500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.375</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.42499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.47499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.52500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.57499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.625</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.67500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.72499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.77500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.82499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.875</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.92500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.97499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$AN$53:$AN$92</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>6.1000300000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.2466299999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.3741899999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.4804500000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.5681399999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.6263899999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.67842</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.7245600000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.7617500000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.7999599999999996</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.8403799999999997</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.8830600000000004</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.9270399999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.9776800000000003</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7.0312299999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.09375</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7.15855</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7.2411000000000003</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7.3334000000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7.43546</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7.5478500000000004</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7.6808899999999998</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7.8279899999999998</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7.9947299999999997</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>8.1971399999999992</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>8.4329800000000006</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>8.7128899999999998</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>9.0515399999999993</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>9.4697399999999998</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>10.020799999999999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>10.6767</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>11.603899999999999</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>12.9534</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>15.2034</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>32.947299999999998</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>206.66900000000001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>376.23899999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7DC7-A44C-8CF6-52F8021B7E2D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="494969104"/>
+        <c:axId val="495045440"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="494969104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="495045440"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="495045440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="494969104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1815,6 +2997,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -3364,6 +4626,1038 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4020,6 +6314,78 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>658812</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>22224</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68DFF140-692D-3BAF-0B5A-C30711E98EDD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>76994</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>738187</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>42069</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62573073-9ABF-F876-7F04-4D28D1AC8B3E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4345,23 +6711,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{173CCB5C-070E-7C49-8579-8FD62CA55CA2}">
-  <dimension ref="A4:AD93"/>
+  <dimension ref="A4:AN93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="64" workbookViewId="0">
-      <selection activeCell="AM56" sqref="AM56"/>
+    <sheetView tabSelected="1" topLeftCell="U41" zoomScale="64" workbookViewId="0">
+      <selection activeCell="AQ72" sqref="AQ72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.2">
       <c r="Q4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="AC4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AM4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
@@ -4377,8 +6746,14 @@
       <c r="AD5" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AM5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN5" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -4389,232 +6764,308 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="R6" s="1">
-        <v>11.8706</v>
+        <v>7.0127300000000004</v>
       </c>
       <c r="AC6" s="1">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="AD6" s="1">
-        <v>11.8706</v>
-      </c>
-    </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+        <v>7.0127300000000004</v>
+      </c>
+      <c r="AM6" s="1">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AN6" s="1">
+        <v>7.3687800000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="B7" s="1">
-        <v>9.7136999999999993</v>
+        <v>6.0470300000000003</v>
       </c>
       <c r="Q7" s="1">
         <v>0.05</v>
       </c>
       <c r="R7" s="1">
-        <v>12.4438</v>
+        <v>7.2858700000000001</v>
       </c>
       <c r="AC7" s="1">
         <v>0.05</v>
       </c>
       <c r="AD7" s="1">
-        <v>12.4438</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+        <v>7.2858700000000001</v>
+      </c>
+      <c r="AM7" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="AN7" s="1">
+        <v>7.6095199999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>0.05</v>
       </c>
       <c r="B8" s="1">
-        <v>9.8029299999999999</v>
+        <v>6.1015800000000002</v>
       </c>
       <c r="Q8" s="1">
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="R8" s="1">
-        <v>13.015000000000001</v>
+        <v>7.4444100000000004</v>
       </c>
       <c r="AC8" s="1">
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="AD8" s="1">
-        <v>13.015000000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+        <v>7.4444100000000004</v>
+      </c>
+      <c r="AM8" s="1">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="AN8" s="1">
+        <v>7.7631100000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="B9" s="1">
-        <v>9.9278999999999993</v>
+        <v>6.16662</v>
       </c>
       <c r="Q9" s="1">
         <v>0.1</v>
       </c>
       <c r="R9" s="1">
-        <v>13.742699999999999</v>
+        <v>7.5825500000000003</v>
       </c>
       <c r="AC9" s="1">
         <v>0.1</v>
       </c>
       <c r="AD9" s="1">
-        <v>13.742699999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+        <v>7.5825500000000003</v>
+      </c>
+      <c r="AM9" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="AN9" s="1">
+        <v>7.92455</v>
+      </c>
+    </row>
+    <row r="10" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>0.1</v>
       </c>
       <c r="B10" s="1">
-        <v>10.0487</v>
+        <v>6.2422700000000004</v>
       </c>
       <c r="Q10" s="1">
         <v>0.125</v>
       </c>
       <c r="R10" s="1">
-        <v>14.506</v>
+        <v>7.7391899999999998</v>
       </c>
       <c r="AC10" s="1">
         <v>0.125</v>
       </c>
       <c r="AD10" s="1">
-        <v>14.506</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+        <v>7.7391899999999998</v>
+      </c>
+      <c r="AM10" s="1">
+        <v>0.125</v>
+      </c>
+      <c r="AN10" s="1">
+        <v>8.1041600000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>0.125</v>
       </c>
       <c r="B11" s="1">
-        <v>10.2492</v>
+        <v>6.3569300000000002</v>
       </c>
       <c r="Q11" s="1">
         <v>0.15</v>
       </c>
       <c r="R11" s="1">
-        <v>15.194900000000001</v>
+        <v>7.9120100000000004</v>
       </c>
       <c r="AC11" s="1">
         <v>0.15</v>
       </c>
       <c r="AD11" s="1">
-        <v>15.194900000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+        <v>7.9120100000000004</v>
+      </c>
+      <c r="AM11" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="AN11" s="1">
+        <v>8.2700399999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>0.15</v>
       </c>
       <c r="B12" s="1">
-        <v>10.4968</v>
+        <v>6.5471700000000004</v>
       </c>
       <c r="Q12" s="1">
         <v>0.17499999999999999</v>
       </c>
       <c r="R12" s="1">
-        <v>15.8127</v>
+        <v>8.1111599999999999</v>
       </c>
       <c r="AC12" s="1">
         <v>0.17499999999999999</v>
       </c>
       <c r="AD12" s="1">
-        <v>15.8127</v>
-      </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+        <v>8.1111599999999999</v>
+      </c>
+      <c r="AM12" s="1">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="AN12" s="1">
+        <v>8.4257200000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>0.17499999999999999</v>
       </c>
       <c r="B13" s="1">
-        <v>10.936999999999999</v>
+        <v>6.8864200000000002</v>
       </c>
       <c r="Q13" s="1">
         <v>0.2</v>
       </c>
       <c r="R13" s="1">
-        <v>16.5303</v>
+        <v>8.3328199999999999</v>
       </c>
       <c r="AC13" s="1">
         <v>0.2</v>
       </c>
       <c r="AD13" s="1">
-        <v>16.5303</v>
-      </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+        <v>8.3328199999999999</v>
+      </c>
+      <c r="AM13" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="AN13" s="1">
+        <v>8.5699400000000008</v>
+      </c>
+    </row>
+    <row r="14" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>0.2</v>
       </c>
       <c r="B14" s="1">
-        <v>11.832000000000001</v>
+        <v>7.5638100000000001</v>
       </c>
       <c r="Q14" s="1">
         <v>0.22500000000000001</v>
       </c>
       <c r="R14" s="1">
-        <v>17.688600000000001</v>
+        <v>8.5380699999999994</v>
       </c>
       <c r="AC14" s="1">
         <v>0.22500000000000001</v>
       </c>
       <c r="AD14" s="1">
-        <v>17.688600000000001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+        <v>8.5380699999999994</v>
+      </c>
+      <c r="AM14" s="1">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="AN14" s="1">
+        <v>8.7524099999999994</v>
+      </c>
+    </row>
+    <row r="15" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>0.22500000000000001</v>
       </c>
       <c r="B15" s="1">
-        <v>13.9999</v>
+        <v>9.4183400000000006</v>
       </c>
       <c r="Q15" s="1">
         <v>0.25</v>
       </c>
       <c r="R15" s="1">
-        <v>45.227600000000002</v>
+        <v>8.7639200000000006</v>
       </c>
       <c r="AC15" s="1">
         <v>0.25</v>
       </c>
       <c r="AD15" s="1">
-        <v>45.227600000000002</v>
-      </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+        <v>8.7639200000000006</v>
+      </c>
+      <c r="AM15" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="AN15" s="1">
+        <v>8.9565999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>0.25</v>
       </c>
       <c r="B16" s="1">
-        <v>72.271799999999999</v>
+        <v>65.409300000000002</v>
       </c>
       <c r="Q16" s="1">
         <v>0.27500000000000002</v>
       </c>
       <c r="R16" s="1">
-        <v>500</v>
+        <v>9.0407299999999999</v>
       </c>
       <c r="AC16" s="1">
         <v>0.27500000000000002</v>
       </c>
       <c r="AD16" s="1">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.2">
+        <v>9.0407299999999999</v>
+      </c>
+      <c r="AM16" s="1">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="AN16" s="1">
+        <v>9.1382100000000008</v>
+      </c>
+    </row>
+    <row r="17" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>0.27500000000000002</v>
       </c>
       <c r="B17" s="1">
-        <v>658.35799999999995</v>
+        <v>500</v>
       </c>
       <c r="Q17" s="1">
         <v>0.3</v>
       </c>
-      <c r="R17" s="1"/>
+      <c r="R17" s="1">
+        <v>9.33507</v>
+      </c>
       <c r="AC17" s="1">
         <v>0.3</v>
       </c>
-      <c r="AD17" s="1"/>
-    </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AD17" s="1">
+        <v>9.33507</v>
+      </c>
+      <c r="AM17" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="AN17" s="1">
+        <v>9.3721700000000006</v>
+      </c>
+    </row>
+    <row r="18" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>0.3</v>
       </c>
@@ -4622,13 +7073,23 @@
       <c r="Q18" s="1">
         <v>0.32500000000000001</v>
       </c>
-      <c r="R18" s="1"/>
+      <c r="R18" s="1">
+        <v>9.6427300000000002</v>
+      </c>
       <c r="AC18" s="1">
         <v>0.32500000000000001</v>
       </c>
-      <c r="AD18" s="1"/>
-    </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AD18" s="1">
+        <v>9.6427300000000002</v>
+      </c>
+      <c r="AM18" s="1">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="AN18" s="1">
+        <v>9.7096300000000006</v>
+      </c>
+    </row>
+    <row r="19" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>0.32500000000000001</v>
       </c>
@@ -4636,13 +7097,23 @@
       <c r="Q19" s="1">
         <v>0.35</v>
       </c>
-      <c r="R19" s="1"/>
+      <c r="R19" s="1">
+        <v>10.024100000000001</v>
+      </c>
       <c r="AC19" s="1">
         <v>0.35</v>
       </c>
-      <c r="AD19" s="1"/>
-    </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AD19" s="1">
+        <v>10.024100000000001</v>
+      </c>
+      <c r="AM19" s="1">
+        <v>0.35</v>
+      </c>
+      <c r="AN19" s="1">
+        <v>10.1355</v>
+      </c>
+    </row>
+    <row r="20" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>0.35</v>
       </c>
@@ -4650,13 +7121,23 @@
       <c r="Q20" s="1">
         <v>0.375</v>
       </c>
-      <c r="R20" s="1"/>
+      <c r="R20" s="1">
+        <v>10.684699999999999</v>
+      </c>
       <c r="AC20" s="1">
         <v>0.375</v>
       </c>
-      <c r="AD20" s="1"/>
-    </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AD20" s="1">
+        <v>10.684699999999999</v>
+      </c>
+      <c r="AM20" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="AN20" s="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="21" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>0.375</v>
       </c>
@@ -4664,13 +7145,21 @@
       <c r="Q21" s="1">
         <v>0.4</v>
       </c>
-      <c r="R21" s="1"/>
+      <c r="R21" s="1">
+        <v>209.01300000000001</v>
+      </c>
       <c r="AC21" s="1">
         <v>0.4</v>
       </c>
-      <c r="AD21" s="1"/>
-    </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AD21" s="1">
+        <v>209.01300000000001</v>
+      </c>
+      <c r="AM21" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="AN21" s="1"/>
+    </row>
+    <row r="22" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>0.4</v>
       </c>
@@ -4678,13 +7167,21 @@
       <c r="Q22" s="1">
         <v>0.42499999999999999</v>
       </c>
-      <c r="R22" s="1"/>
+      <c r="R22" s="1">
+        <v>500</v>
+      </c>
       <c r="AC22" s="1">
         <v>0.42499999999999999</v>
       </c>
-      <c r="AD22" s="1"/>
-    </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AD22" s="1">
+        <v>500</v>
+      </c>
+      <c r="AM22" s="1">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="AN22" s="1"/>
+    </row>
+    <row r="23" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>0.42499999999999999</v>
       </c>
@@ -4697,8 +7194,12 @@
         <v>0.45</v>
       </c>
       <c r="AD23" s="1"/>
-    </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AM23" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="AN23" s="1"/>
+    </row>
+    <row r="24" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>0.45</v>
       </c>
@@ -4711,8 +7212,12 @@
         <v>0.47499999999999998</v>
       </c>
       <c r="AD24" s="1"/>
-    </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AM24" s="1">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="AN24" s="1"/>
+    </row>
+    <row r="25" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>0.47499999999999998</v>
       </c>
@@ -4725,8 +7230,12 @@
         <v>0.5</v>
       </c>
       <c r="AD25" s="1"/>
-    </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AM25" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AN25" s="1"/>
+    </row>
+    <row r="26" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>0.5</v>
       </c>
@@ -4739,8 +7248,12 @@
         <v>0.52500000000000002</v>
       </c>
       <c r="AD26" s="1"/>
-    </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AM26" s="1">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="AN26" s="1"/>
+    </row>
+    <row r="27" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>0.52500000000000002</v>
       </c>
@@ -4753,8 +7266,12 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="AD27" s="1"/>
-    </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AM27" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AN27" s="1"/>
+    </row>
+    <row r="28" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>0.55000000000000004</v>
       </c>
@@ -4767,8 +7284,12 @@
         <v>0.57499999999999996</v>
       </c>
       <c r="AD28" s="1"/>
-    </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AM28" s="1">
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="AN28" s="1"/>
+    </row>
+    <row r="29" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>0.57499999999999996</v>
       </c>
@@ -4781,8 +7302,12 @@
         <v>0.6</v>
       </c>
       <c r="AD29" s="1"/>
-    </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AM29" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="AN29" s="1"/>
+    </row>
+    <row r="30" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>0.6</v>
       </c>
@@ -4795,8 +7320,12 @@
         <v>0.625</v>
       </c>
       <c r="AD30" s="1"/>
-    </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AM30" s="1">
+        <v>0.625</v>
+      </c>
+      <c r="AN30" s="1"/>
+    </row>
+    <row r="31" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>0.625</v>
       </c>
@@ -4809,8 +7338,12 @@
         <v>0.65</v>
       </c>
       <c r="AD31" s="1"/>
-    </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AM31" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="AN31" s="1"/>
+    </row>
+    <row r="32" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>0.65</v>
       </c>
@@ -4823,8 +7356,12 @@
         <v>0.67500000000000004</v>
       </c>
       <c r="AD32" s="1"/>
-    </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AM32" s="1">
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="AN32" s="1"/>
+    </row>
+    <row r="33" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>0.67500000000000004</v>
       </c>
@@ -4837,8 +7374,12 @@
         <v>0.7</v>
       </c>
       <c r="AD33" s="1"/>
-    </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AM33" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="AN33" s="1"/>
+    </row>
+    <row r="34" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>0.7</v>
       </c>
@@ -4851,8 +7392,12 @@
         <v>0.72499999999999998</v>
       </c>
       <c r="AD34" s="1"/>
-    </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AM34" s="1">
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="AN34" s="1"/>
+    </row>
+    <row r="35" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>0.72499999999999998</v>
       </c>
@@ -4865,8 +7410,12 @@
         <v>0.75</v>
       </c>
       <c r="AD35" s="1"/>
-    </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AM35" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="AN35" s="1"/>
+    </row>
+    <row r="36" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>0.75</v>
       </c>
@@ -4879,8 +7428,12 @@
         <v>0.77500000000000002</v>
       </c>
       <c r="AD36" s="1"/>
-    </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AM36" s="1">
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="AN36" s="1"/>
+    </row>
+    <row r="37" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>0.77500000000000002</v>
       </c>
@@ -4893,8 +7446,12 @@
         <v>0.8</v>
       </c>
       <c r="AD37" s="1"/>
-    </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AM37" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="AN37" s="1"/>
+    </row>
+    <row r="38" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>0.8</v>
       </c>
@@ -4907,8 +7464,12 @@
         <v>0.82499999999999996</v>
       </c>
       <c r="AD38" s="1"/>
-    </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AM38" s="1">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="AN38" s="1"/>
+    </row>
+    <row r="39" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>0.82499999999999996</v>
       </c>
@@ -4921,8 +7482,12 @@
         <v>0.85</v>
       </c>
       <c r="AD39" s="1"/>
-    </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AM39" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="AN39" s="1"/>
+    </row>
+    <row r="40" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>0.85</v>
       </c>
@@ -4935,8 +7500,12 @@
         <v>0.875</v>
       </c>
       <c r="AD40" s="1"/>
-    </row>
-    <row r="41" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AM40" s="1">
+        <v>0.875</v>
+      </c>
+      <c r="AN40" s="1"/>
+    </row>
+    <row r="41" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>0.875</v>
       </c>
@@ -4949,8 +7518,12 @@
         <v>0.9</v>
       </c>
       <c r="AD41" s="1"/>
-    </row>
-    <row r="42" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AM41" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="AN41" s="1"/>
+    </row>
+    <row r="42" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>0.9</v>
       </c>
@@ -4963,8 +7536,12 @@
         <v>0.92500000000000004</v>
       </c>
       <c r="AD42" s="1"/>
-    </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AM42" s="1">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="AN42" s="1"/>
+    </row>
+    <row r="43" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>0.92500000000000004</v>
       </c>
@@ -4977,8 +7554,12 @@
         <v>0.95</v>
       </c>
       <c r="AD43" s="1"/>
-    </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AM43" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="AN43" s="1"/>
+    </row>
+    <row r="44" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>0.95</v>
       </c>
@@ -4991,8 +7572,12 @@
         <v>0.97499999999999998</v>
       </c>
       <c r="AD44" s="1"/>
-    </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AM44" s="1">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="AN44" s="1"/>
+    </row>
+    <row r="45" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>0.97499999999999998</v>
       </c>
@@ -5005,22 +7590,37 @@
         <v>1</v>
       </c>
       <c r="AD45" s="1"/>
-    </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AM45" s="1">
+        <v>1</v>
+      </c>
+      <c r="AN45" s="1"/>
+    </row>
+    <row r="46" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>1</v>
       </c>
       <c r="B46" s="1"/>
     </row>
-    <row r="52" spans="17:30" x14ac:dyDescent="0.2">
+    <row r="51" spans="17:40" x14ac:dyDescent="0.2">
+      <c r="AM51" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="17:40" x14ac:dyDescent="0.2">
       <c r="Q52" t="s">
         <v>4</v>
       </c>
       <c r="AC52" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="53" spans="17:30" x14ac:dyDescent="0.2">
+      <c r="AM52" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN52" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="17:40" x14ac:dyDescent="0.2">
       <c r="Q53" s="1" t="s">
         <v>0</v>
       </c>
@@ -5033,22 +7633,34 @@
       <c r="AD53" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="17:30" x14ac:dyDescent="0.2">
+      <c r="AM53" s="1">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AN53" s="1">
+        <v>6.1000300000000003</v>
+      </c>
+    </row>
+    <row r="54" spans="17:40" x14ac:dyDescent="0.2">
       <c r="Q54" s="1">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="R54" s="1">
-        <v>12.2849</v>
+        <v>7.9921600000000002</v>
       </c>
       <c r="AC54" s="1">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="AD54" s="1">
-        <v>9.7370099999999997</v>
-      </c>
-    </row>
-    <row r="55" spans="17:30" x14ac:dyDescent="0.2">
+        <v>6.01539</v>
+      </c>
+      <c r="AM54" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="AN54" s="1">
+        <v>6.2466299999999997</v>
+      </c>
+    </row>
+    <row r="55" spans="17:40" x14ac:dyDescent="0.2">
       <c r="Q55" s="1">
         <v>0.05</v>
       </c>
@@ -5059,10 +7671,16 @@
         <v>0.05</v>
       </c>
       <c r="AD55" s="1">
-        <v>10.0905</v>
-      </c>
-    </row>
-    <row r="56" spans="17:30" x14ac:dyDescent="0.2">
+        <v>6.1556600000000001</v>
+      </c>
+      <c r="AM55" s="1">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="AN55" s="1">
+        <v>6.3741899999999996</v>
+      </c>
+    </row>
+    <row r="56" spans="17:40" x14ac:dyDescent="0.2">
       <c r="Q56" s="1">
         <v>7.4999999999999997E-2</v>
       </c>
@@ -5071,10 +7689,16 @@
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="AD56" s="1">
-        <v>10.3222</v>
-      </c>
-    </row>
-    <row r="57" spans="17:30" x14ac:dyDescent="0.2">
+        <v>6.2647199999999996</v>
+      </c>
+      <c r="AM56" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="AN56" s="1">
+        <v>6.4804500000000003</v>
+      </c>
+    </row>
+    <row r="57" spans="17:40" x14ac:dyDescent="0.2">
       <c r="Q57" s="1">
         <v>0.1</v>
       </c>
@@ -5083,10 +7707,16 @@
         <v>0.1</v>
       </c>
       <c r="AD57" s="1">
-        <v>10.4625</v>
-      </c>
-    </row>
-    <row r="58" spans="17:30" x14ac:dyDescent="0.2">
+        <v>6.3636400000000002</v>
+      </c>
+      <c r="AM57" s="1">
+        <v>0.125</v>
+      </c>
+      <c r="AN57" s="1">
+        <v>6.5681399999999996</v>
+      </c>
+    </row>
+    <row r="58" spans="17:40" x14ac:dyDescent="0.2">
       <c r="Q58" s="1">
         <v>0.125</v>
       </c>
@@ -5095,10 +7725,16 @@
         <v>0.125</v>
       </c>
       <c r="AD58" s="1">
-        <v>10.5944</v>
-      </c>
-    </row>
-    <row r="59" spans="17:30" x14ac:dyDescent="0.2">
+        <v>6.4409799999999997</v>
+      </c>
+      <c r="AM58" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="AN58" s="1">
+        <v>6.6263899999999998</v>
+      </c>
+    </row>
+    <row r="59" spans="17:40" x14ac:dyDescent="0.2">
       <c r="Q59" s="1">
         <v>0.15</v>
       </c>
@@ -5107,10 +7743,16 @@
         <v>0.15</v>
       </c>
       <c r="AD59" s="1">
-        <v>10.671200000000001</v>
-      </c>
-    </row>
-    <row r="60" spans="17:30" x14ac:dyDescent="0.2">
+        <v>6.5090899999999996</v>
+      </c>
+      <c r="AM59" s="1">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="AN59" s="1">
+        <v>6.67842</v>
+      </c>
+    </row>
+    <row r="60" spans="17:40" x14ac:dyDescent="0.2">
       <c r="Q60" s="1">
         <v>0.17499999999999999</v>
       </c>
@@ -5119,10 +7761,16 @@
         <v>0.17499999999999999</v>
       </c>
       <c r="AD60" s="1">
-        <v>10.7384</v>
-      </c>
-    </row>
-    <row r="61" spans="17:30" x14ac:dyDescent="0.2">
+        <v>6.5481499999999997</v>
+      </c>
+      <c r="AM60" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="AN60" s="1">
+        <v>6.7245600000000003</v>
+      </c>
+    </row>
+    <row r="61" spans="17:40" x14ac:dyDescent="0.2">
       <c r="Q61" s="1">
         <v>0.2</v>
       </c>
@@ -5131,10 +7779,16 @@
         <v>0.2</v>
       </c>
       <c r="AD61" s="1">
-        <v>10.8515</v>
-      </c>
-    </row>
-    <row r="62" spans="17:30" x14ac:dyDescent="0.2">
+        <v>6.6013900000000003</v>
+      </c>
+      <c r="AM61" s="1">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="AN61" s="1">
+        <v>6.7617500000000001</v>
+      </c>
+    </row>
+    <row r="62" spans="17:40" x14ac:dyDescent="0.2">
       <c r="Q62" s="1">
         <v>0.22500000000000001</v>
       </c>
@@ -5143,10 +7797,16 @@
         <v>0.22500000000000001</v>
       </c>
       <c r="AD62" s="1">
-        <v>10.9567</v>
-      </c>
-    </row>
-    <row r="63" spans="17:30" x14ac:dyDescent="0.2">
+        <v>6.6374599999999999</v>
+      </c>
+      <c r="AM62" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="AN62" s="1">
+        <v>6.7999599999999996</v>
+      </c>
+    </row>
+    <row r="63" spans="17:40" x14ac:dyDescent="0.2">
       <c r="Q63" s="1">
         <v>0.25</v>
       </c>
@@ -5155,10 +7815,16 @@
         <v>0.25</v>
       </c>
       <c r="AD63" s="1">
-        <v>11.095599999999999</v>
-      </c>
-    </row>
-    <row r="64" spans="17:30" x14ac:dyDescent="0.2">
+        <v>6.67509</v>
+      </c>
+      <c r="AM63" s="1">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="AN63" s="1">
+        <v>6.8403799999999997</v>
+      </c>
+    </row>
+    <row r="64" spans="17:40" x14ac:dyDescent="0.2">
       <c r="Q64" s="1">
         <v>0.27500000000000002</v>
       </c>
@@ -5167,10 +7833,16 @@
         <v>0.27500000000000002</v>
       </c>
       <c r="AD64" s="1">
-        <v>11.2408</v>
-      </c>
-    </row>
-    <row r="65" spans="17:30" x14ac:dyDescent="0.2">
+        <v>6.7086399999999999</v>
+      </c>
+      <c r="AM64" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="AN64" s="1">
+        <v>6.8830600000000004</v>
+      </c>
+    </row>
+    <row r="65" spans="17:40" x14ac:dyDescent="0.2">
       <c r="Q65" s="1">
         <v>0.3</v>
       </c>
@@ -5179,10 +7851,16 @@
         <v>0.3</v>
       </c>
       <c r="AD65" s="1">
-        <v>11.440799999999999</v>
-      </c>
-    </row>
-    <row r="66" spans="17:30" x14ac:dyDescent="0.2">
+        <v>6.75685</v>
+      </c>
+      <c r="AM65" s="1">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="AN65" s="1">
+        <v>6.9270399999999999</v>
+      </c>
+    </row>
+    <row r="66" spans="17:40" x14ac:dyDescent="0.2">
       <c r="Q66" s="1">
         <v>0.32500000000000001</v>
       </c>
@@ -5191,10 +7869,16 @@
         <v>0.32500000000000001</v>
       </c>
       <c r="AD66" s="1">
-        <v>11.7326</v>
-      </c>
-    </row>
-    <row r="67" spans="17:30" x14ac:dyDescent="0.2">
+        <v>6.8004699999999998</v>
+      </c>
+      <c r="AM66" s="1">
+        <v>0.35</v>
+      </c>
+      <c r="AN66" s="1">
+        <v>6.9776800000000003</v>
+      </c>
+    </row>
+    <row r="67" spans="17:40" x14ac:dyDescent="0.2">
       <c r="Q67" s="1">
         <v>0.35</v>
       </c>
@@ -5203,10 +7887,16 @@
         <v>0.35</v>
       </c>
       <c r="AD67" s="1">
-        <v>12.0481</v>
-      </c>
-    </row>
-    <row r="68" spans="17:30" x14ac:dyDescent="0.2">
+        <v>6.84795</v>
+      </c>
+      <c r="AM67" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="AN67" s="1">
+        <v>7.0312299999999999</v>
+      </c>
+    </row>
+    <row r="68" spans="17:40" x14ac:dyDescent="0.2">
       <c r="Q68" s="1">
         <v>0.375</v>
       </c>
@@ -5215,10 +7905,16 @@
         <v>0.375</v>
       </c>
       <c r="AD68" s="1">
-        <v>12.513500000000001</v>
-      </c>
-    </row>
-    <row r="69" spans="17:30" x14ac:dyDescent="0.2">
+        <v>6.8907699999999998</v>
+      </c>
+      <c r="AM68" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="AN68" s="1">
+        <v>7.09375</v>
+      </c>
+    </row>
+    <row r="69" spans="17:40" x14ac:dyDescent="0.2">
       <c r="Q69" s="1">
         <v>0.4</v>
       </c>
@@ -5227,10 +7923,16 @@
         <v>0.4</v>
       </c>
       <c r="AD69" s="1">
-        <v>13.164899999999999</v>
-      </c>
-    </row>
-    <row r="70" spans="17:30" x14ac:dyDescent="0.2">
+        <v>6.9578300000000004</v>
+      </c>
+      <c r="AM69" s="1">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="AN69" s="1">
+        <v>7.15855</v>
+      </c>
+    </row>
+    <row r="70" spans="17:40" x14ac:dyDescent="0.2">
       <c r="Q70" s="1">
         <v>0.42499999999999999</v>
       </c>
@@ -5239,10 +7941,16 @@
         <v>0.42499999999999999</v>
       </c>
       <c r="AD70" s="1">
-        <v>14.145899999999999</v>
-      </c>
-    </row>
-    <row r="71" spans="17:30" x14ac:dyDescent="0.2">
+        <v>7.0281900000000004</v>
+      </c>
+      <c r="AM70" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="AN70" s="1">
+        <v>7.2411000000000003</v>
+      </c>
+    </row>
+    <row r="71" spans="17:40" x14ac:dyDescent="0.2">
       <c r="Q71" s="1">
         <v>0.45</v>
       </c>
@@ -5251,10 +7959,16 @@
         <v>0.45</v>
       </c>
       <c r="AD71" s="1">
-        <v>16.047799999999999</v>
-      </c>
-    </row>
-    <row r="72" spans="17:30" x14ac:dyDescent="0.2">
+        <v>7.1050000000000004</v>
+      </c>
+      <c r="AM71" s="1">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="AN71" s="1">
+        <v>7.3334000000000001</v>
+      </c>
+    </row>
+    <row r="72" spans="17:40" x14ac:dyDescent="0.2">
       <c r="Q72" s="1">
         <v>0.47499999999999998</v>
       </c>
@@ -5263,10 +7977,16 @@
         <v>0.47499999999999998</v>
       </c>
       <c r="AD72" s="1">
-        <v>21.1157</v>
-      </c>
-    </row>
-    <row r="73" spans="17:30" x14ac:dyDescent="0.2">
+        <v>7.1845400000000001</v>
+      </c>
+      <c r="AM72" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AN72" s="1">
+        <v>7.43546</v>
+      </c>
+    </row>
+    <row r="73" spans="17:40" x14ac:dyDescent="0.2">
       <c r="Q73" s="1">
         <v>0.5</v>
       </c>
@@ -5275,10 +7995,16 @@
         <v>0.5</v>
       </c>
       <c r="AD73" s="1">
-        <v>146.27000000000001</v>
-      </c>
-    </row>
-    <row r="74" spans="17:30" x14ac:dyDescent="0.2">
+        <v>7.28233</v>
+      </c>
+      <c r="AM73" s="1">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="AN73" s="1">
+        <v>7.5478500000000004</v>
+      </c>
+    </row>
+    <row r="74" spans="17:40" x14ac:dyDescent="0.2">
       <c r="Q74" s="1">
         <v>0.52500000000000002</v>
       </c>
@@ -5287,10 +8013,16 @@
         <v>0.52500000000000002</v>
       </c>
       <c r="AD74" s="1">
-        <v>469.233</v>
-      </c>
-    </row>
-    <row r="75" spans="17:30" x14ac:dyDescent="0.2">
+        <v>7.3817599999999999</v>
+      </c>
+      <c r="AM74" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AN74" s="1">
+        <v>7.6808899999999998</v>
+      </c>
+    </row>
+    <row r="75" spans="17:40" x14ac:dyDescent="0.2">
       <c r="Q75" s="1">
         <v>0.55000000000000004</v>
       </c>
@@ -5298,9 +8030,17 @@
       <c r="AC75" s="1">
         <v>0.55000000000000004</v>
       </c>
-      <c r="AD75" s="1"/>
-    </row>
-    <row r="76" spans="17:30" x14ac:dyDescent="0.2">
+      <c r="AD75" s="1">
+        <v>7.5119600000000002</v>
+      </c>
+      <c r="AM75" s="1">
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="AN75" s="1">
+        <v>7.8279899999999998</v>
+      </c>
+    </row>
+    <row r="76" spans="17:40" x14ac:dyDescent="0.2">
       <c r="Q76" s="1">
         <v>0.57499999999999996</v>
       </c>
@@ -5308,9 +8048,17 @@
       <c r="AC76" s="1">
         <v>0.57499999999999996</v>
       </c>
-      <c r="AD76" s="1"/>
-    </row>
-    <row r="77" spans="17:30" x14ac:dyDescent="0.2">
+      <c r="AD76" s="1">
+        <v>7.6585400000000003</v>
+      </c>
+      <c r="AM76" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="AN76" s="1">
+        <v>7.9947299999999997</v>
+      </c>
+    </row>
+    <row r="77" spans="17:40" x14ac:dyDescent="0.2">
       <c r="Q77" s="1">
         <v>0.6</v>
       </c>
@@ -5318,9 +8066,17 @@
       <c r="AC77" s="1">
         <v>0.6</v>
       </c>
-      <c r="AD77" s="1"/>
-    </row>
-    <row r="78" spans="17:30" x14ac:dyDescent="0.2">
+      <c r="AD77" s="1">
+        <v>7.8183600000000002</v>
+      </c>
+      <c r="AM77" s="1">
+        <v>0.625</v>
+      </c>
+      <c r="AN77" s="1">
+        <v>8.1971399999999992</v>
+      </c>
+    </row>
+    <row r="78" spans="17:40" x14ac:dyDescent="0.2">
       <c r="Q78" s="1">
         <v>0.625</v>
       </c>
@@ -5328,9 +8084,17 @@
       <c r="AC78" s="1">
         <v>0.625</v>
       </c>
-      <c r="AD78" s="1"/>
-    </row>
-    <row r="79" spans="17:30" x14ac:dyDescent="0.2">
+      <c r="AD78" s="1">
+        <v>8.0097500000000004</v>
+      </c>
+      <c r="AM78" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="AN78" s="1">
+        <v>8.4329800000000006</v>
+      </c>
+    </row>
+    <row r="79" spans="17:40" x14ac:dyDescent="0.2">
       <c r="Q79" s="1">
         <v>0.65</v>
       </c>
@@ -5338,9 +8102,17 @@
       <c r="AC79" s="1">
         <v>0.65</v>
       </c>
-      <c r="AD79" s="1"/>
-    </row>
-    <row r="80" spans="17:30" x14ac:dyDescent="0.2">
+      <c r="AD79" s="1">
+        <v>8.2284000000000006</v>
+      </c>
+      <c r="AM79" s="1">
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="AN79" s="1">
+        <v>8.7128899999999998</v>
+      </c>
+    </row>
+    <row r="80" spans="17:40" x14ac:dyDescent="0.2">
       <c r="Q80" s="1">
         <v>0.67500000000000004</v>
       </c>
@@ -5348,9 +8120,17 @@
       <c r="AC80" s="1">
         <v>0.67500000000000004</v>
       </c>
-      <c r="AD80" s="1"/>
-    </row>
-    <row r="81" spans="17:30" x14ac:dyDescent="0.2">
+      <c r="AD80" s="1">
+        <v>8.4909599999999994</v>
+      </c>
+      <c r="AM80" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="AN80" s="1">
+        <v>9.0515399999999993</v>
+      </c>
+    </row>
+    <row r="81" spans="17:40" x14ac:dyDescent="0.2">
       <c r="Q81" s="1">
         <v>0.7</v>
       </c>
@@ -5358,9 +8138,17 @@
       <c r="AC81" s="1">
         <v>0.7</v>
       </c>
-      <c r="AD81" s="1"/>
-    </row>
-    <row r="82" spans="17:30" x14ac:dyDescent="0.2">
+      <c r="AD81" s="1">
+        <v>8.7980999999999998</v>
+      </c>
+      <c r="AM81" s="1">
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="AN81" s="1">
+        <v>9.4697399999999998</v>
+      </c>
+    </row>
+    <row r="82" spans="17:40" x14ac:dyDescent="0.2">
       <c r="Q82" s="1">
         <v>0.72499999999999998</v>
       </c>
@@ -5368,9 +8156,17 @@
       <c r="AC82" s="1">
         <v>0.72499999999999998</v>
       </c>
-      <c r="AD82" s="1"/>
-    </row>
-    <row r="83" spans="17:30" x14ac:dyDescent="0.2">
+      <c r="AD82" s="1">
+        <v>9.2014700000000005</v>
+      </c>
+      <c r="AM82" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="AN82" s="1">
+        <v>10.020799999999999</v>
+      </c>
+    </row>
+    <row r="83" spans="17:40" x14ac:dyDescent="0.2">
       <c r="Q83" s="1">
         <v>0.75</v>
       </c>
@@ -5378,9 +8174,17 @@
       <c r="AC83" s="1">
         <v>0.75</v>
       </c>
-      <c r="AD83" s="1"/>
-    </row>
-    <row r="84" spans="17:30" x14ac:dyDescent="0.2">
+      <c r="AD83" s="1">
+        <v>9.6399600000000003</v>
+      </c>
+      <c r="AM83" s="1">
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="AN83" s="1">
+        <v>10.6767</v>
+      </c>
+    </row>
+    <row r="84" spans="17:40" x14ac:dyDescent="0.2">
       <c r="Q84" s="1">
         <v>0.77500000000000002</v>
       </c>
@@ -5388,9 +8192,17 @@
       <c r="AC84" s="1">
         <v>0.77500000000000002</v>
       </c>
-      <c r="AD84" s="1"/>
-    </row>
-    <row r="85" spans="17:30" x14ac:dyDescent="0.2">
+      <c r="AD84" s="1">
+        <v>10.254</v>
+      </c>
+      <c r="AM84" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="AN84" s="1">
+        <v>11.603899999999999</v>
+      </c>
+    </row>
+    <row r="85" spans="17:40" x14ac:dyDescent="0.2">
       <c r="Q85" s="1">
         <v>0.8</v>
       </c>
@@ -5398,9 +8210,17 @@
       <c r="AC85" s="1">
         <v>0.8</v>
       </c>
-      <c r="AD85" s="1"/>
-    </row>
-    <row r="86" spans="17:30" x14ac:dyDescent="0.2">
+      <c r="AD85" s="1">
+        <v>11.085100000000001</v>
+      </c>
+      <c r="AM85" s="1">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="AN85" s="1">
+        <v>12.9534</v>
+      </c>
+    </row>
+    <row r="86" spans="17:40" x14ac:dyDescent="0.2">
       <c r="Q86" s="1">
         <v>0.82499999999999996</v>
       </c>
@@ -5408,9 +8228,17 @@
       <c r="AC86" s="1">
         <v>0.82499999999999996</v>
       </c>
-      <c r="AD86" s="1"/>
-    </row>
-    <row r="87" spans="17:30" x14ac:dyDescent="0.2">
+      <c r="AD86" s="1">
+        <v>12.3187</v>
+      </c>
+      <c r="AM86" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="AN86" s="1">
+        <v>15.2034</v>
+      </c>
+    </row>
+    <row r="87" spans="17:40" x14ac:dyDescent="0.2">
       <c r="Q87" s="1">
         <v>0.85</v>
       </c>
@@ -5418,9 +8246,17 @@
       <c r="AC87" s="1">
         <v>0.85</v>
       </c>
-      <c r="AD87" s="1"/>
-    </row>
-    <row r="88" spans="17:30" x14ac:dyDescent="0.2">
+      <c r="AD87" s="1">
+        <v>14.352600000000001</v>
+      </c>
+      <c r="AM87" s="1">
+        <v>0.875</v>
+      </c>
+      <c r="AN87" s="1">
+        <v>32.947299999999998</v>
+      </c>
+    </row>
+    <row r="88" spans="17:40" x14ac:dyDescent="0.2">
       <c r="Q88" s="1">
         <v>0.875</v>
       </c>
@@ -5428,9 +8264,17 @@
       <c r="AC88" s="1">
         <v>0.875</v>
       </c>
-      <c r="AD88" s="1"/>
-    </row>
-    <row r="89" spans="17:30" x14ac:dyDescent="0.2">
+      <c r="AD88" s="1">
+        <v>22.949200000000001</v>
+      </c>
+      <c r="AM88" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="AN88" s="1">
+        <v>206.66900000000001</v>
+      </c>
+    </row>
+    <row r="89" spans="17:40" x14ac:dyDescent="0.2">
       <c r="Q89" s="1">
         <v>0.9</v>
       </c>
@@ -5438,9 +8282,17 @@
       <c r="AC89" s="1">
         <v>0.9</v>
       </c>
-      <c r="AD89" s="1"/>
-    </row>
-    <row r="90" spans="17:30" x14ac:dyDescent="0.2">
+      <c r="AD89" s="1">
+        <v>149.72499999999999</v>
+      </c>
+      <c r="AM89" s="1">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="AN89" s="1">
+        <v>376.23899999999998</v>
+      </c>
+    </row>
+    <row r="90" spans="17:40" x14ac:dyDescent="0.2">
       <c r="Q90" s="1">
         <v>0.92500000000000004</v>
       </c>
@@ -5448,9 +8300,15 @@
       <c r="AC90" s="1">
         <v>0.92500000000000004</v>
       </c>
-      <c r="AD90" s="1"/>
-    </row>
-    <row r="91" spans="17:30" x14ac:dyDescent="0.2">
+      <c r="AD90" s="1">
+        <v>331.846</v>
+      </c>
+      <c r="AM90" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="AN90" s="1"/>
+    </row>
+    <row r="91" spans="17:40" x14ac:dyDescent="0.2">
       <c r="Q91" s="1">
         <v>0.95</v>
       </c>
@@ -5459,8 +8317,12 @@
         <v>0.95</v>
       </c>
       <c r="AD91" s="1"/>
-    </row>
-    <row r="92" spans="17:30" x14ac:dyDescent="0.2">
+      <c r="AM91" s="1">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="AN91" s="1"/>
+    </row>
+    <row r="92" spans="17:40" x14ac:dyDescent="0.2">
       <c r="Q92" s="1">
         <v>0.97499999999999998</v>
       </c>
@@ -5469,8 +8331,12 @@
         <v>0.97499999999999998</v>
       </c>
       <c r="AD92" s="1"/>
-    </row>
-    <row r="93" spans="17:30" x14ac:dyDescent="0.2">
+      <c r="AM92" s="1">
+        <v>1</v>
+      </c>
+      <c r="AN92" s="1"/>
+    </row>
+    <row r="93" spans="17:40" x14ac:dyDescent="0.2">
       <c r="Q93" s="1">
         <v>1</v>
       </c>
